--- a/DOCUMENT/Gestion_De_Projet.xlsx
+++ b/DOCUMENT/Gestion_De_Projet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\thoma\OneDrive\Bureau\CRETTEUR_IAFRATE_PROJET_WEB\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D3E2A3-9990-450D-BA46-C8DD017E4BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C5E2C1BE-642B-47A8-994A-804E8A8B4F3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Responsable</t>
   </si>
@@ -87,12 +81,18 @@
   </si>
   <si>
     <t>CSS Persos</t>
+  </si>
+  <si>
+    <t>Thomas/Flo</t>
+  </si>
+  <si>
+    <t>Florian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,18 +455,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C45461-C674-4070-AC0C-E37A520905F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>44902</v>
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>44908</v>
@@ -553,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>44908</v>
@@ -568,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>44921</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>44925</v>
@@ -613,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>44927</v>

--- a/DOCUMENT/Gestion_De_Projet.xlsx
+++ b/DOCUMENT/Gestion_De_Projet.xlsx
@@ -455,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>44925</v>
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>44936</v>
